--- a/2021/Day11 (INCOMPLETE).xlsx
+++ b/2021/Day11 (INCOMPLETE).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Financial Modelling World Cup/Advent-of-Code-Excel/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Excel/Excel &amp; Financial Modelling/Advent-of-Code-Excel/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD0FCDD-5D37-D842-85D5-E1D7198473A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C4435A-A61B-B648-9D36-D92D6AD589EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{0286F73B-7DEB-7447-A9DB-423A598096A0}"/>
+    <workbookView xWindow="17020" yWindow="760" windowWidth="16560" windowHeight="21580" activeTab="1" xr2:uid="{0286F73B-7DEB-7447-A9DB-423A598096A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Solutions" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Solutions!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,20 +37,48 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>P1 Solution:</t>
   </si>
   <si>
     <t>P2 Solution:</t>
   </si>
+  <si>
+    <t>Picker</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,6 +93,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -93,10 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +461,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,15 +492,837 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93CD7B9-7C10-6A4D-9C6E-4DED8BCB301F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:DI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4"/>
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DB1" s="4"/>
+      <c r="DC1" s="4"/>
+      <c r="DD1" s="4"/>
+      <c r="DE1" s="4"/>
+      <c r="DF1" s="4"/>
+      <c r="DG1" s="4"/>
+      <c r="DH1" s="4"/>
+      <c r="DI1" s="4"/>
+    </row>
+    <row r="2" spans="1:113" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A11">_xlfn.SEQUENCE(10)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8271653836</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2:L11">RIGHT(LEFT($B$2:$B$11,_xlfn.SEQUENCE(1,10)),1)*1</f>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="Y2">
+        <f>IF(N2=9,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>IF(O2=9,0,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:113" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7567626775</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:113" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2315713316</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:113" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6542655315</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:113" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2453637333</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:113" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1247264328</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:113" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2325146614</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:113" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2115843171</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:113" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6182376282</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:113" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2384738675</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="C13" cm="1">
+        <f t="array" ref="C13:L22">_xlfn.LET(_xlpm.x,_xlfn.ANCHORARRAY(C2)+1,_xlpm.x)</f>
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>